--- a/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v2.xlsx
+++ b/xlsx/ICAO_WXXM_3.0.0_Semantic_Correspondence_Report_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96533F6D-48A4-4140-AD5F-28CE89AE0C69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A183D60-5839-A94E-9D1A-983CD64999ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="-17160" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4160" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1050">
   <si>
     <t>AerodromeAirTemperatureForecast</t>
   </si>
@@ -2837,10 +2837,6 @@
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Wind@isVariable</t>
   </si>
   <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AerodromeCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Wind</t>
-  </si>
-  <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AviationCondition@windGust</t>
   </si>
   <si>
@@ -2983,14 +2979,6 @@
   </si>
   <si>
     <t>Not established</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherPhenomenon@base
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Cloud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherPhenomenon@top 
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Cloud </t>
   </si>
   <si>
     <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Common:Codelists:CodeVerticalReferenceType </t>
@@ -3197,31 +3185,10 @@
     <t>In Logical Model: urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AerodromeCondition</t>
   </si>
   <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Cloud</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Winf</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Wind</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WindShear</t>
-  </si>
-  <si>
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:RunwayCondition@rvr</t>
   </si>
   <si>
     <t>see notes onmax and min modelling</t>
-  </si>
-  <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType@CUMULONIMBUS
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType@TOWERING_CUMULUS</t>
   </si>
   <si>
     <t>AIRM has no direct link between this and weather conditions</t>
@@ -3238,10 +3205,6 @@
 urn:aero:airm:1.0.0:LogicalModel:Subjects:Stakeholders:Stakeholder:WeatherObserver </t>
   </si>
   <si>
-    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:SpaceWeather</t>
-  </si>
-  <si>
     <t>can be inspired by the observation times on surface contamination</t>
   </si>
   <si>
@@ -3270,10 +3233,6 @@
     <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:VolcanicActivity@volcano</t>
   </si>
   <si>
-    <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherCondition@phenomenon
-urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:VolcanicAshCloud </t>
-  </si>
-  <si>
     <t>role played</t>
   </si>
   <si>
@@ -3324,6 +3283,34 @@
   </si>
   <si>
     <t>Additional Traces</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:AerodromeCondition@phenomenon</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherPhenomenon@base</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WeatherPhenomenon@top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Cloud </t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:WindShear</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType@CUMULONIMBUS
+urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:Codelists:CodeCloudType@TOWERING_CUMULUS</t>
+  </si>
+  <si>
+    <t>urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:SpaceWeather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:aero:airm:1.0.0:LogicalModel:Subjects:Meteorology:VolcanicAshCloud </t>
   </si>
 </sst>
 </file>
@@ -4078,11 +4065,11 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4408,7 +4395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4469,15 +4456,15 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>942</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+        <v>941</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -4601,9 +4588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F351" sqref="F351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4628,7 +4615,7 @@
         <v>475</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>476</v>
@@ -4639,8 +4626,8 @@
       <c r="F1" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>1050</v>
+      <c r="G1" s="36" t="s">
+        <v>1040</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>479</v>
@@ -4669,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="29" t="s">
@@ -4681,7 +4668,7 @@
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4709,7 +4696,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4737,7 +4724,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -4765,7 +4752,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4793,7 +4780,7 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -4815,7 +4802,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -4858,10 +4845,10 @@
         <v>619</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="29"/>
@@ -4869,7 +4856,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -4893,7 +4880,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -4939,7 +4926,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="29"/>
@@ -4959,7 +4946,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="29"/>
@@ -4967,7 +4954,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -5059,7 +5046,7 @@
         <v>716</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="29"/>
@@ -5085,7 +5072,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="29"/>
@@ -5105,7 +5092,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="29"/>
@@ -5113,7 +5100,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5127,7 +5114,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="29"/>
@@ -5135,7 +5122,7 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5149,7 +5136,7 @@
         <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="29"/>
@@ -5489,7 +5476,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
       <c r="L34" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5609,7 +5596,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="80" x14ac:dyDescent="0.2">
@@ -5681,7 +5668,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="29"/>
@@ -5689,10 +5676,10 @@
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
       <c r="L42" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -5738,16 +5725,16 @@
         <v>95</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -5839,9 +5826,11 @@
         <v>103</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>902</v>
-      </c>
-      <c r="G48" s="33"/>
+        <v>1041</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>895</v>
+      </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
@@ -5889,13 +5878,13 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5967,7 +5956,7 @@
         <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="29"/>
@@ -5975,7 +5964,7 @@
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5995,7 +5984,7 @@
         <v>111</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G54" s="32"/>
       <c r="H54" s="29"/>
@@ -6023,13 +6012,13 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -6053,7 +6042,7 @@
       </c>
       <c r="K56" s="29"/>
       <c r="L56" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6101,7 +6090,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
@@ -6119,7 +6108,7 @@
         <v>117</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G59" s="19"/>
       <c r="H59" s="29"/>
@@ -6127,7 +6116,7 @@
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6141,7 +6130,7 @@
         <v>119</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="29"/>
@@ -6149,7 +6138,7 @@
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -6171,7 +6160,7 @@
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6217,7 +6206,7 @@
         <v>127</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G63" s="19"/>
       <c r="H63" s="29"/>
@@ -6243,7 +6232,7 @@
         <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="29"/>
@@ -6251,7 +6240,7 @@
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -6273,7 +6262,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
@@ -6398,10 +6387,10 @@
         <v>665</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="29"/>
@@ -6409,7 +6398,7 @@
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -6437,7 +6426,7 @@
       <c r="J71" s="29"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6465,7 +6454,7 @@
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -6479,7 +6468,7 @@
         <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="29"/>
@@ -6487,7 +6476,7 @@
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6507,7 +6496,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="29"/>
@@ -6533,7 +6522,7 @@
         <v>156</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="29"/>
@@ -6559,7 +6548,7 @@
         <v>158</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G76" s="19"/>
       <c r="H76" s="29"/>
@@ -6587,13 +6576,13 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
       <c r="L77" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -6613,9 +6602,11 @@
         <v>164</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>951</v>
-      </c>
-      <c r="G78" s="19"/>
+        <v>1042</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>904</v>
+      </c>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
@@ -6639,7 +6630,7 @@
         <v>167</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G79" s="19"/>
       <c r="H79" s="29"/>
@@ -6665,15 +6656,17 @@
         <v>169</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>952</v>
-      </c>
-      <c r="G80" s="19"/>
+        <v>1043</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>1044</v>
+      </c>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -6693,7 +6686,7 @@
         <v>167</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G81" s="19"/>
       <c r="H81" s="29"/>
@@ -6719,7 +6712,7 @@
         <v>172</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="29"/>
@@ -6745,7 +6738,7 @@
         <v>175</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="29"/>
@@ -6753,7 +6746,7 @@
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
       <c r="L83" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6773,7 +6766,7 @@
         <v>177</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="29"/>
@@ -6799,7 +6792,7 @@
         <v>179</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G85" s="19"/>
       <c r="H85" s="29"/>
@@ -6827,7 +6820,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
@@ -6925,7 +6918,7 @@
         <v>190</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="29"/>
@@ -6951,7 +6944,7 @@
       <c r="J91" s="29"/>
       <c r="K91" s="29"/>
       <c r="L91" s="1" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -6965,7 +6958,7 @@
         <v>193</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="29"/>
@@ -6985,7 +6978,7 @@
         <v>195</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G93" s="32"/>
       <c r="H93" s="29"/>
@@ -7005,7 +6998,7 @@
         <v>196</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G94" s="32"/>
       <c r="H94" s="29"/>
@@ -7031,7 +7024,7 @@
         <v>198</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G95" s="32"/>
       <c r="H95" s="29"/>
@@ -7057,7 +7050,7 @@
         <v>200</v>
       </c>
       <c r="F96" s="32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G96" s="32"/>
       <c r="H96" s="29"/>
@@ -7083,7 +7076,7 @@
         <v>203</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G97" s="32"/>
       <c r="H97" s="29"/>
@@ -7103,7 +7096,7 @@
         <v>204</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="29"/>
@@ -7123,7 +7116,7 @@
         <v>205</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G99" s="19"/>
       <c r="H99" s="29"/>
@@ -7143,7 +7136,7 @@
         <v>206</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="29"/>
@@ -7193,7 +7186,7 @@
       </c>
       <c r="K102" s="29"/>
       <c r="L102" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -7215,7 +7208,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I103" s="29"/>
       <c r="J103" s="29"/>
@@ -7291,7 +7284,7 @@
         <v>216</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G106" s="30"/>
       <c r="H106" s="29"/>
@@ -7317,7 +7310,7 @@
         <v>218</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G107" s="30"/>
       <c r="H107" s="29"/>
@@ -7343,7 +7336,7 @@
         <v>220</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G108" s="30"/>
       <c r="H108" s="29"/>
@@ -7352,7 +7345,7 @@
       <c r="K108" s="29"/>
       <c r="L108" s="29"/>
     </row>
-    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>210</v>
       </c>
@@ -7369,9 +7362,11 @@
         <v>222</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G109" s="30"/>
+        <v>977</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>904</v>
+      </c>
       <c r="H109" s="29"/>
       <c r="I109" s="29"/>
       <c r="J109" s="29"/>
@@ -7403,10 +7398,10 @@
       <c r="J110" s="29"/>
       <c r="K110" s="29"/>
       <c r="L110" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>210</v>
       </c>
@@ -7423,9 +7418,11 @@
         <v>226</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G111" s="30"/>
+        <v>977</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>895</v>
+      </c>
       <c r="H111" s="29"/>
       <c r="I111" s="29"/>
       <c r="J111" s="29"/>
@@ -7453,7 +7450,7 @@
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -7473,7 +7470,7 @@
         <v>230</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G113" s="31"/>
       <c r="H113" s="29"/>
@@ -7499,7 +7496,7 @@
         <v>232</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G114" s="31"/>
       <c r="H114" s="29"/>
@@ -7525,7 +7522,7 @@
         <v>234</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G115" s="31"/>
       <c r="H115" s="29"/>
@@ -7551,7 +7548,7 @@
         <v>235</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G116" s="31"/>
       <c r="H116" s="29"/>
@@ -7560,7 +7557,7 @@
       <c r="K116" s="29"/>
       <c r="L116" s="29"/>
     </row>
-    <row r="117" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>227</v>
       </c>
@@ -7577,9 +7574,11 @@
         <v>236</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G117" s="30"/>
+        <v>977</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>904</v>
+      </c>
       <c r="H117" s="29"/>
       <c r="I117" s="29"/>
       <c r="J117" s="29"/>
@@ -7614,7 +7613,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>227</v>
       </c>
@@ -7631,16 +7630,18 @@
         <v>239</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G119" s="30"/>
+        <v>977</v>
+      </c>
+      <c r="G119" s="30" t="s">
+        <v>895</v>
+      </c>
       <c r="H119" s="29"/>
       <c r="I119" s="29"/>
       <c r="J119" s="29"/>
       <c r="K119" s="29"/>
       <c r="L119" s="31"/>
     </row>
-    <row r="120" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -7657,9 +7658,11 @@
         <v>241</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G120" s="30"/>
+        <v>977</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>1045</v>
+      </c>
       <c r="H120" s="29"/>
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
@@ -7737,7 +7740,7 @@
         <v>247</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="G123" s="19"/>
       <c r="H123" s="29"/>
@@ -7783,7 +7786,7 @@
         <v>250</v>
       </c>
       <c r="F125" s="31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="29"/>
@@ -7889,7 +7892,7 @@
         <v>257</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G129" s="31"/>
       <c r="H129" s="29"/>
@@ -7965,7 +7968,7 @@
         <v>263</v>
       </c>
       <c r="F132" s="31" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G132" s="31"/>
       <c r="H132" s="29"/>
@@ -8071,13 +8074,13 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I136" s="29"/>
       <c r="J136" s="29"/>
       <c r="K136" s="29"/>
       <c r="L136" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -8097,7 +8100,7 @@
         <v>268</v>
       </c>
       <c r="F137" s="31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G137" s="31"/>
       <c r="H137" s="29"/>
@@ -8123,7 +8126,7 @@
         <v>218</v>
       </c>
       <c r="F138" s="31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G138" s="31"/>
       <c r="H138" s="29"/>
@@ -8507,7 +8510,7 @@
         <v>294</v>
       </c>
       <c r="F153" s="31" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G153" s="31"/>
       <c r="H153" s="29"/>
@@ -8547,7 +8550,7 @@
         <v>294</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="29"/>
@@ -8555,7 +8558,7 @@
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
       <c r="L155" s="29" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -8569,7 +8572,7 @@
         <v>296</v>
       </c>
       <c r="F156" s="31" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G156" s="31"/>
       <c r="H156" s="29"/>
@@ -8578,7 +8581,7 @@
       <c r="K156" s="29"/>
       <c r="L156" s="29"/>
     </row>
-    <row r="157" spans="1:12" ht="160" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="112" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -8589,9 +8592,11 @@
         <v>297</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G157" s="1"/>
+        <v>1046</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>1047</v>
+      </c>
       <c r="H157" s="29"/>
       <c r="I157" s="29"/>
       <c r="J157" s="29"/>
@@ -8663,7 +8668,7 @@
         <v>300</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="29"/>
@@ -8671,7 +8676,7 @@
       <c r="J160" s="29"/>
       <c r="K160" s="29"/>
       <c r="L160" s="29" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -8691,7 +8696,7 @@
         <v>129</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="29"/>
@@ -8717,7 +8722,7 @@
         <v>132</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="29"/>
@@ -8847,7 +8852,7 @@
         <v>304</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="29"/>
@@ -8909,7 +8914,7 @@
       <c r="J169" s="29"/>
       <c r="K169" s="29"/>
       <c r="L169" s="29" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -8957,7 +8962,7 @@
       <c r="J171" s="29"/>
       <c r="K171" s="29"/>
       <c r="L171" s="29" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -8977,7 +8982,7 @@
         <v>154</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="29"/>
@@ -8985,7 +8990,7 @@
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
       <c r="L172" s="29" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9005,7 +9010,7 @@
         <v>311</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="29"/>
@@ -9031,7 +9036,7 @@
         <v>312</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="29"/>
@@ -9059,7 +9064,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I175" s="29"/>
       <c r="J175" s="29"/>
@@ -9085,7 +9090,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I176" s="29"/>
       <c r="J176" s="29"/>
@@ -9183,7 +9188,7 @@
         <v>317</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="29"/>
@@ -9191,7 +9196,7 @@
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
       <c r="L180" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="160" x14ac:dyDescent="0.2">
@@ -9233,7 +9238,7 @@
         <v>320</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="G182" s="1"/>
       <c r="H182" s="29"/>
@@ -9261,7 +9266,7 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I183" s="29"/>
       <c r="J183" s="29"/>
@@ -9333,7 +9338,7 @@
         <v>317</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="29"/>
@@ -9341,7 +9346,7 @@
       <c r="J186" s="29"/>
       <c r="K186" s="29"/>
       <c r="L186" s="1" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -9363,7 +9368,7 @@
       <c r="J187" s="29"/>
       <c r="K187" s="29"/>
       <c r="L187" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9409,7 +9414,7 @@
         <v>326</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="29"/>
@@ -9470,7 +9475,7 @@
       <c r="K191" s="29"/>
       <c r="L191" s="29"/>
     </row>
-    <row r="192" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>323</v>
       </c>
@@ -9487,9 +9492,11 @@
         <v>332</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G192" s="19"/>
+        <v>977</v>
+      </c>
+      <c r="G192" s="19" t="s">
+        <v>1048</v>
+      </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
       <c r="J192" s="29"/>
@@ -9521,7 +9528,7 @@
       <c r="J193" s="29"/>
       <c r="K193" s="29"/>
       <c r="L193" s="29" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -9541,7 +9548,7 @@
         <v>336</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G194" s="19"/>
       <c r="H194" s="29"/>
@@ -9569,13 +9576,13 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I195" s="29"/>
       <c r="J195" s="29"/>
       <c r="K195" s="29"/>
       <c r="L195" s="29" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -9642,7 +9649,7 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I198" s="29"/>
       <c r="J198" s="29"/>
@@ -9666,7 +9673,7 @@
         <v>342</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="29"/>
@@ -9685,7 +9692,7 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I200" s="29"/>
       <c r="J200" s="29"/>
@@ -9702,7 +9709,7 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I201" s="29"/>
       <c r="J201" s="29"/>
@@ -9719,7 +9726,7 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I202" s="29"/>
       <c r="J202" s="29"/>
@@ -9745,7 +9752,7 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I203" s="29"/>
       <c r="J203" s="29"/>
@@ -9771,7 +9778,7 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I204" s="29"/>
       <c r="J204" s="29"/>
@@ -9815,7 +9822,7 @@
       <c r="J206" s="29"/>
       <c r="K206" s="29"/>
       <c r="L206" s="1" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="256" x14ac:dyDescent="0.2">
@@ -9837,7 +9844,7 @@
       <c r="J207" s="29"/>
       <c r="K207" s="29"/>
       <c r="L207" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -9882,7 +9889,7 @@
         <v>253</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="29"/>
@@ -9908,7 +9915,7 @@
         <v>354</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="G210" s="19"/>
       <c r="I210" s="29"/>
@@ -10082,7 +10089,7 @@
         <v>364</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="29"/>
@@ -10108,7 +10115,7 @@
         <v>367</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="29"/>
@@ -10168,7 +10175,7 @@
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
       <c r="L220" s="29" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10196,7 +10203,7 @@
       <c r="J221" s="29"/>
       <c r="K221" s="29"/>
       <c r="L221" s="29" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10216,7 +10223,7 @@
         <v>336</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="29"/>
@@ -10244,7 +10251,7 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I223" s="29"/>
       <c r="J223" s="29"/>
@@ -10270,7 +10277,7 @@
       <c r="J224" s="29"/>
       <c r="K224" s="29"/>
       <c r="L224" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10314,7 +10321,7 @@
         <v>378</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G226" s="19"/>
       <c r="H226" s="29"/>
@@ -10340,7 +10347,7 @@
         <v>380</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G227" s="19"/>
       <c r="H227" s="29"/>
@@ -10368,7 +10375,7 @@
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
       <c r="L228" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10414,7 +10421,7 @@
         <v>378</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G230" s="19"/>
       <c r="H230" s="29"/>
@@ -10440,7 +10447,7 @@
         <v>383</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="29"/>
@@ -10465,7 +10472,7 @@
         <v>386</v>
       </c>
       <c r="F232" s="24" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
@@ -10490,7 +10497,7 @@
         <v>388</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G233" s="19"/>
       <c r="H233" s="29"/>
@@ -10516,7 +10523,7 @@
         <v>390</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G234" s="19"/>
       <c r="H234" s="29"/>
@@ -10542,7 +10549,7 @@
         <v>392</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G235" s="19"/>
       <c r="H235" s="29"/>
@@ -10568,7 +10575,7 @@
         <v>380</v>
       </c>
       <c r="F236" s="19" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G236" s="19"/>
       <c r="H236" s="29"/>
@@ -10590,13 +10597,13 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I237" s="29"/>
       <c r="J237" s="29"/>
       <c r="K237" s="29"/>
       <c r="L237" s="29" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -10618,13 +10625,13 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I238" s="29"/>
       <c r="J238" s="29"/>
       <c r="K238" s="29"/>
       <c r="L238" s="1" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -10646,7 +10653,7 @@
       <c r="J239" s="29"/>
       <c r="K239" s="29"/>
       <c r="L239" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="240" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10666,7 +10673,7 @@
         <v>399</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="29"/>
@@ -10692,7 +10699,7 @@
         <v>401</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G241" s="19"/>
       <c r="H241" s="29"/>
@@ -10720,7 +10727,7 @@
       <c r="J242" s="29"/>
       <c r="K242" s="29"/>
       <c r="L242" s="29" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="243" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10740,7 +10747,7 @@
         <v>399</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G243" s="19"/>
       <c r="H243" s="29"/>
@@ -10766,7 +10773,7 @@
         <v>401</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G244" s="19"/>
       <c r="H244" s="29"/>
@@ -10786,7 +10793,7 @@
         <v>404</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G245" s="19"/>
       <c r="H245" s="29"/>
@@ -10858,7 +10865,7 @@
         <v>408</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="G248" s="1"/>
       <c r="H248" s="29"/>
@@ -10884,7 +10891,7 @@
         <v>411</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G249" s="19"/>
       <c r="H249" s="29"/>
@@ -10910,7 +10917,7 @@
         <v>413</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="29"/>
@@ -10936,7 +10943,7 @@
         <v>415</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="G251" s="1"/>
       <c r="H251" s="29"/>
@@ -10944,7 +10951,7 @@
       <c r="J251" s="29"/>
       <c r="K251" s="29"/>
       <c r="L251" s="29" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="252" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -10990,7 +10997,7 @@
         <v>418</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="29"/>
@@ -11016,7 +11023,7 @@
         <v>420</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G254" s="19"/>
       <c r="H254" s="29"/>
@@ -11044,13 +11051,13 @@
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
       <c r="H255" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I255" s="29"/>
       <c r="J255" s="29"/>
       <c r="K255" s="29"/>
       <c r="L255" s="29" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="256" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11070,7 +11077,7 @@
         <v>424</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="29"/>
@@ -11095,7 +11102,7 @@
         <v>426</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="G257" s="19"/>
       <c r="H257" s="29"/>
@@ -11120,7 +11127,7 @@
         <v>336</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G258" s="19"/>
       <c r="H258" s="29"/>
@@ -11148,14 +11155,14 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I259" s="29"/>
       <c r="J259" s="29"/>
       <c r="K259" s="29"/>
       <c r="L259" s="29"/>
     </row>
-    <row r="260" spans="1:12" ht="96" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>427</v>
       </c>
@@ -11166,9 +11173,11 @@
         <v>428</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G260" s="19"/>
+        <v>977</v>
+      </c>
+      <c r="G260" s="19" t="s">
+        <v>1049</v>
+      </c>
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
       <c r="J260" s="29"/>
@@ -11192,7 +11201,7 @@
         <v>430</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G261" s="19"/>
       <c r="H261" s="29"/>
@@ -11220,7 +11229,7 @@
       <c r="J262" s="29"/>
       <c r="K262" s="29"/>
       <c r="L262" s="29" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="263" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11240,7 +11249,7 @@
         <v>430</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G263" s="19"/>
       <c r="H263" s="29"/>
@@ -11248,7 +11257,7 @@
       <c r="J263" s="29"/>
       <c r="K263" s="29"/>
       <c r="L263" s="1" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="264" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -11268,7 +11277,7 @@
         <v>433</v>
       </c>
       <c r="F264" s="19" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G264" s="19"/>
       <c r="H264" s="29"/>
@@ -11294,7 +11303,7 @@
         <v>434</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G265" s="19"/>
       <c r="H265" s="29"/>
@@ -11322,7 +11331,7 @@
       <c r="J266" s="29"/>
       <c r="K266" s="29"/>
       <c r="L266" s="29" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11368,7 +11377,7 @@
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
       <c r="H268" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
@@ -11392,7 +11401,7 @@
         <v>441</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G269" s="19"/>
       <c r="H269" s="29"/>
@@ -11441,7 +11450,7 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I271" s="29"/>
       <c r="J271" s="29"/>
@@ -11465,7 +11474,7 @@
         <v>445</v>
       </c>
       <c r="F272" s="19" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G272" s="19"/>
       <c r="H272" s="29"/>
@@ -11473,7 +11482,7 @@
       <c r="J272" s="29"/>
       <c r="K272" s="29"/>
       <c r="L272" s="29" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11495,7 +11504,7 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I273" s="29"/>
       <c r="J273" s="29"/>
@@ -11521,7 +11530,7 @@
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
       <c r="H274" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I274" s="29"/>
       <c r="J274" s="29"/>
@@ -11545,7 +11554,7 @@
         <v>441</v>
       </c>
       <c r="F275" s="19" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G275" s="19"/>
       <c r="H275" s="29"/>
@@ -11567,13 +11576,13 @@
       <c r="F276" s="19"/>
       <c r="G276" s="19"/>
       <c r="H276" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I276" s="29"/>
       <c r="J276" s="29"/>
       <c r="K276" s="29"/>
       <c r="L276" s="29" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11593,7 +11602,7 @@
         <v>455</v>
       </c>
       <c r="F277" s="19" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G277" s="19"/>
       <c r="H277" s="29"/>
@@ -11619,7 +11628,7 @@
         <v>457</v>
       </c>
       <c r="F278" s="19" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G278" s="19"/>
       <c r="H278" s="29"/>
@@ -11627,7 +11636,7 @@
       <c r="J278" s="29"/>
       <c r="K278" s="29"/>
       <c r="L278" s="29" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11669,7 +11678,7 @@
         <v>461</v>
       </c>
       <c r="F280" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G280" s="19"/>
       <c r="H280" s="29"/>
@@ -11717,7 +11726,7 @@
         <v>461</v>
       </c>
       <c r="F282" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G282" s="19"/>
       <c r="H282" s="29"/>
@@ -11737,7 +11746,7 @@
         <v>464</v>
       </c>
       <c r="F283" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G283" s="33"/>
       <c r="H283" s="29"/>
@@ -11745,7 +11754,7 @@
       <c r="J283" s="29"/>
       <c r="K283" s="29"/>
       <c r="L283" s="29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -11761,7 +11770,7 @@
       <c r="F284" s="19"/>
       <c r="G284" s="19"/>
       <c r="H284" s="29" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I284" s="29"/>
       <c r="J284" s="29"/>
@@ -11785,7 +11794,7 @@
         <v>468</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="29"/>
@@ -11882,7 +11891,7 @@
         <v>725</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G289" s="1"/>
     </row>
@@ -11900,7 +11909,7 @@
         <v>727</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G290" s="1"/>
     </row>
@@ -11918,7 +11927,7 @@
         <v>729</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G291" s="1"/>
     </row>
@@ -11938,7 +11947,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -11957,7 +11966,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -11976,7 +11985,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -11995,7 +12004,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12014,7 +12023,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12030,7 +12039,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12047,7 +12056,7 @@
         <v>742</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G298" s="1"/>
     </row>
@@ -12067,7 +12076,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12086,7 +12095,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12102,7 +12111,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -12119,7 +12128,7 @@
         <v>742</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G302" s="1"/>
     </row>
@@ -12139,7 +12148,7 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12158,7 +12167,7 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -12172,7 +12181,7 @@
         <v>748</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G305" s="1"/>
     </row>
@@ -12190,7 +12199,7 @@
         <v>749</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G306" s="1"/>
     </row>
@@ -12208,7 +12217,7 @@
         <v>750</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G307" s="1"/>
     </row>
@@ -12228,7 +12237,7 @@
         <v>860</v>
       </c>
       <c r="L308" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12250,7 +12259,7 @@
         <v>860</v>
       </c>
       <c r="L309" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12272,7 +12281,7 @@
         <v>860</v>
       </c>
       <c r="L310" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -12291,7 +12300,7 @@
         <v>860</v>
       </c>
       <c r="L311" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="80" x14ac:dyDescent="0.2">
@@ -12313,7 +12322,7 @@
         <v>860</v>
       </c>
       <c r="L312" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="96" x14ac:dyDescent="0.2">
@@ -12335,7 +12344,7 @@
         <v>860</v>
       </c>
       <c r="L313" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -12349,7 +12358,7 @@
         <v>761</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G314" s="1"/>
     </row>
@@ -12367,7 +12376,7 @@
         <v>763</v>
       </c>
       <c r="F315" s="34" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G315" s="34"/>
     </row>
@@ -12385,7 +12394,7 @@
         <v>765</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G316" s="1"/>
     </row>
@@ -12405,7 +12414,7 @@
         <v>860</v>
       </c>
       <c r="L317" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12478,7 +12487,7 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12498,7 +12507,7 @@
         <v>776</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="G322" s="1"/>
     </row>
@@ -12519,7 +12528,7 @@
         <v>778</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="G323" s="1"/>
     </row>
@@ -12536,7 +12545,7 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12555,7 +12564,7 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12574,7 +12583,7 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12593,7 +12602,7 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12612,7 +12621,7 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -12626,7 +12635,7 @@
         <v>787</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="G329" s="1"/>
     </row>
@@ -12647,7 +12656,7 @@
         <v>789</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G330" s="1"/>
     </row>
@@ -12668,7 +12677,7 @@
         <v>791</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G331" s="1"/>
     </row>
@@ -12685,7 +12694,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -12704,10 +12713,10 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="M333" s="1"/>
     </row>
@@ -12725,7 +12734,7 @@
         <v>795</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G334" s="1"/>
     </row>
@@ -12745,10 +12754,10 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L335" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12767,10 +12776,10 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L336" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -12786,10 +12795,10 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L337" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12808,10 +12817,10 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L338" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12830,10 +12839,10 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L339" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12852,10 +12861,10 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L340" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12874,10 +12883,10 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L341" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12893,10 +12902,10 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L342" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12915,10 +12924,10 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L343" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -12937,10 +12946,10 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L344" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
